--- a/xlsx/Char.xlsx
+++ b/xlsx/Char.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcode\egen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work_go\xgen\egen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14835" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14835"/>
   </bookViews>
   <sheets>
     <sheet name="Char" sheetId="7" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>int64</t>
   </si>
@@ -297,8 +297,140 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>float</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法强</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int32]int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成碎片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>piceIds</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global.Vector3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldPos</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>localPos</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>csType:UnityEngine.Vector3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始位置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>!desc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认角色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务赠送角色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,7,4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>split:| alias:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成碎片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全图位置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗/法术</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗/物理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>[</t>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -309,96 +441,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1]</t>
+      <t>lias</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>法强</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[法强]34</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔抗</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int32]int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成碎片</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,117 +474,28 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>piceIds</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7</t>
+    <t>312</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>护甲</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global.Vector3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>worldPos</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7]44,[护甲]5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>localPos</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>csType:UnityEngine.Vector3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始位置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>!desc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务赠送角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,9,7,4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>split:| alias:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成碎片</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>全图位置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗/法术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗/物理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法强</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lias</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -712,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +748,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1081,16 +1046,18 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="9" width="26.375" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="26.375" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1104,28 +1071,34 @@
         <v>43</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>80</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F1" s="16"/>
       <c r="G1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>57</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H1" s="16"/>
       <c r="I1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J1" s="16"/>
       <c r="K1" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1133,20 +1106,26 @@
       <c r="E2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="F2" s="13"/>
       <c r="G2" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>32</v>
       </c>
@@ -1154,7 +1133,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>5</v>
@@ -1162,26 +1141,32 @@
       <c r="E3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>41</v>
       </c>
@@ -1189,37 +1174,43 @@
         <v>38</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="20">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="20">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>42</v>
@@ -1228,28 +1219,38 @@
         <v>10012</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="21">
+        <v>81</v>
+      </c>
+      <c r="F5" s="28">
+        <v>12</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="28">
+        <v>45</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="21">
         <v>1</v>
       </c>
-      <c r="J5" s="21">
+      <c r="N5" s="21">
         <v>1</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="O5" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1262,26 +1263,34 @@
       <c r="D6" s="8">
         <v>1020</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="E6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="28">
+        <v>2</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <v>45</v>
+      </c>
+      <c r="J6" s="28">
+        <v>45</v>
+      </c>
+      <c r="K6" s="23">
         <v>5</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="21">
+      <c r="L6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="21">
         <v>2</v>
       </c>
-      <c r="J6" s="21">
+      <c r="N6" s="21">
         <v>2</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>73</v>
+      <c r="O6" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1328,21 +1337,21 @@
         <v>7</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
@@ -1537,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1545,7 +1554,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1558,7 +1567,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1566,7 +1575,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1574,7 +1583,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>3</v>

--- a/xlsx/Char.xlsx
+++ b/xlsx/Char.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work_go\xgen\egen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_work\AAA\Fantastic\Tools\egen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -333,10 +333,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[int32]int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>合成碎片</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -446,34 +442,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>312</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -495,6 +463,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;int32,int32&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;int&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +1013,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,7 +1022,7 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
@@ -1071,31 +1047,31 @@
         <v>43</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="N1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
@@ -1108,19 +1084,19 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -1151,19 +1127,19 @@
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
@@ -1180,29 +1156,29 @@
         <v>2</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="20"/>
       <c r="H4" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="27"/>
       <c r="K4" s="19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L4" s="20">
         <v>1</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
@@ -1219,26 +1195,26 @@
         <v>10012</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="28">
         <v>12</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="28">
         <v>45</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="21">
         <v>1</v>
@@ -1247,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
@@ -1264,7 +1240,7 @@
         <v>1020</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="28">
         <v>2</v>
@@ -1281,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6" s="21">
         <v>2</v>
@@ -1290,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1318,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>45</v>
@@ -1554,7 +1530,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1583,7 +1559,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>3</v>
